--- a/数据整理/stocks/A股/深证主板/002027-分众传媒.xlsx
+++ b/数据整理/stocks/A股/深证主板/002027-分众传媒.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20924,7 +20925,6 @@
           <t>工银瑞信中证传媒指数（LOF）C</t>
         </is>
       </c>
-      <c r="D266" t="inlineStr"/>
       <c r="E266" t="inlineStr">
         <is>
           <t>94.11</t>
@@ -20939,6 +20939,7924 @@
         <v>0</v>
       </c>
       <c r="H266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H208"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.1652</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501049</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>188.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.7359</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010730</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华心佳两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>147.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>11.5166</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>262.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>48.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>11.3034</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>106.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>9.8443</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011173</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华心享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>115.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>8.4773</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>100.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>6.1803</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>75.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5.3145</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>169101</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红睿丰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>55.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.8772</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>59.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.8343</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010557</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富数字生活主题六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>105.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4.5699</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001112</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>53.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4.4683</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>50.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>4.2553</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011399</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>4.2526</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>56.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>4.2209</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>48.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3.7879</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>64.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>3.6554</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>3.5421</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>35.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>3.3986</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>53.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>3.2583</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000970</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方红睿元三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>3.1635</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>60.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>3.1402</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>51.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2.5448</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>59.16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2.5345</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003940</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>70.25</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2.4517</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>60.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2.3813</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2.2714</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>30.44</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2.0638</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>46.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2.0166</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信互联网加股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>50.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.7614</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>40.50</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.6646</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>26.55</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.6010</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>30.98</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.5552</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>43.34</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.5429</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>40.87</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.5204</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1.3171</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>57.49</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1.2824</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>37.46</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>33.51</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1.2474</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1.2275</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>161837</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华大盘精选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>38.26</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1.2128</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>30.48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>67.55</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1.1308</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1.1293</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008546</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>34.53</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>1.0566</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1.0286</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>160133</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方天元新产业股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>82.91</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>1.0265</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.9619</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.9254</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方隆元产业主题混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>17.67</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.8782</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>81.11</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.8752</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009085</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银华丰享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.8243</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>16.06</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.7982</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.7809</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>26.30</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>45.58</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.7627</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.7593</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.7521</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009152</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.6369</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.6200</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.6188</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>15.14</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>81.88</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.6162</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>61.84</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.5927</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.5653</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>50.45</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.5215</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011400</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.5155</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>77.87</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.4910</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.4865</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001163</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>银华中国梦30股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.4788</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.4706</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004788</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>16.41</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.4628</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>519017</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>大成积极成长混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.4505</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.4493</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.4221</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.4152</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004789</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.3201</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.3186</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2823</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2516</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2498</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>59.22</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2459</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2447</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>163807</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中银优选混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>78.77</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2427</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>501200</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>民生加银科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2321</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>48.16</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2086</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>96.21</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1945</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>481013</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>工银消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1846</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>008306</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>方正富邦天璇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1834</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>81.99</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1799</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>730002</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>方正富邦红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1787</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1784</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1730</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>000955</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>南方产业活力股票</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>270041</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>57.35</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1519</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>007850</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>方正富邦天睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>43.22</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>501090</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>007959</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>方正富邦天恒混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>481008</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>工银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>78.05</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010070</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>方正富邦ESG主题投资混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>162203</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>泰达宏利稳定混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>009781</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1170</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>61.37</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010636</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>财通安盈混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>70.67</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>004190</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>招商沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>159909</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>招商深证TMT50ETF</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>000904</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>银华回报灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>45.58</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>001366</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>金鹰产业整合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>67.55</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>006780</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>广发稳健策略混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>73.28</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>487021</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>工银瑞信优质精选混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>80.59</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>80.76</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>工银瑞信现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>66.73</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>57.35</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>009329</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>000587</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>大成灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>009153</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>010637</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>财通安盈混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>金鹰元安混合A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>210006</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>010071</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>方正富邦ESG主题投资混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>004191</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>招商沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>210010</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>010506</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>61.37</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>007570</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>方正富邦红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>501060</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>002425</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>006698</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>红土创新沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>002513</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>金鹰元安混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>006109</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>富荣价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>006110</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>富荣价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>004436</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>31.34</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>210011</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>007851</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>方正富邦天睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>011475</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>工银消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>006699</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>红土创新沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>72.44</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>008307</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>方正富邦天璇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>010022</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>011476</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>81.99</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>501061</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>007960</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>方正富邦天恒混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>72.44</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>004437</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>31.34</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>80.89</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>162510</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>国联安双力中小板综指 (LOF)</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G208" t="n">
+        <v>0</v>
+      </c>
+      <c r="H208" t="n">
         <v>1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002027-分众传媒.xlsx
+++ b/数据整理/stocks/A股/深证主板/002027-分众传媒.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -28863,4 +28864,4696 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H123"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501049</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>161.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.0745</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010730</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华心佳两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>136.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.7588</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>217.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>48.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.9999</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>126.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8.6848</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011173</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华心享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>111.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7.9609</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>96.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6.6350</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>76.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.9632</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>136.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.5647</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>46.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.9496</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>169101</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红睿丰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>46.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.7935</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>49.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.6132</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001112</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>42.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.3306</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010557</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富数字生活主题六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.9813</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011399</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>72.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.9242</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>48.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.8908</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000970</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红睿元三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>40.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.6611</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>55.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.5636</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>67.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.4413</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>45.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.2574</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>64.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>72.59</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.8551</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.7773</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>32.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.7258</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>38.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.6226</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>25.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.3335</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011853</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>40.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.1686</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>28.40</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.1303</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>33.57</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.0910</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>19.75</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.0310</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.0236</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.9814</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011665</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>30.18</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.9778</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011854</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>32.98</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.9630</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>35.57</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>30.02</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.8999</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>22.55</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.8952</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.8797</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>20.38</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.8682</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.7262</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.7200</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>21.79</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.6798</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.6010</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5782</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5296</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009085</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银华丰享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4935</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>13.83</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4799</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>260103</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>景顺长城动力平衡混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>69.56</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4366</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4349</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>73.30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4057</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>55.34</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3893</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3856</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004788</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3844</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3659</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3657</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011400</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3543</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3462</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2672</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2535</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2471</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004789</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2311</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2076</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>501090</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1984</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>97.28</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1888</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>48.79</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1644</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008306</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>方正富邦天璇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1577</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007850</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>方正富邦天睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1467</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>730002</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>方正富邦红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007959</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>方正富邦天恒混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>481013</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>工银消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012545</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>69.65</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010070</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>方正富邦ESG主题投资混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009329</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>97.47</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011917</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011666</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>30.18</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009006</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010071</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>方正富邦ESG主题投资混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>79.34</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010506</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>007570</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>方正富邦红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>44.54</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>44.54</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>97.06</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011918</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>007851</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>方正富邦天睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011475</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>工银消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>008307</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>方正富邦天璇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>012546</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>69.65</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>55.77</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>007960</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>方正富邦天恒混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>44.54</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002027-分众传媒.xlsx
+++ b/数据整理/stocks/A股/深证主板/002027-分众传媒.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -33556,4 +33557,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>122</v>
+      </c>
+      <c r="D2" t="n">
+        <v>130.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>207</v>
+      </c>
+      <c r="D3" t="n">
+        <v>198.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>265</v>
+      </c>
+      <c r="D4" t="n">
+        <v>231.76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>272</v>
+      </c>
+      <c r="D5" t="n">
+        <v>228.24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002027-分众传媒.xlsx
+++ b/数据整理/stocks/A股/深证主板/002027-分众传媒.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -33565,7 +33566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33576,17 +33577,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -33596,14 +33617,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>122</v>
-      </c>
-      <c r="D2" t="n">
-        <v>130.7</v>
+          <t>501049</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>165.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16.2884</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -33612,14 +33655,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>207</v>
-      </c>
-      <c r="D3" t="n">
-        <v>198.96</v>
+          <t>010730</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华心佳两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>133.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.9072</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -33628,14 +33693,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>265</v>
-      </c>
-      <c r="D4" t="n">
-        <v>231.76</v>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>208.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>51.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10.0812</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -33644,13 +33731,7555 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011173</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华心享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>115.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8.9166</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>120.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7.4021</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>148.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>55.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.1402</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>50.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.8711</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>132.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.8528</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>47.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.7785</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>169101</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红睿丰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>47.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.0836</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001112</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>46.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.6263</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>43.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.2785</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>36.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.1248</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000970</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红睿元三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>43.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3.0637</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010557</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富数字生活主题六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.9303</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011399</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.8346</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>74.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.7624</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>61.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.7361</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>47.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.4958</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>25.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.2982</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>41.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.2869</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>59.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2.0776</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>70.93</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.8726</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华核心价值优选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>36.27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.6176</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011665</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.6080</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008131</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>38.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.5447</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011853</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>49.99</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.5297</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.3789</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.2613</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.2199</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>35.64</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.1440</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.1276</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.1240</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.0120</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.9647</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010348</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>景顺长城泰保三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>25.59</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.9417</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>36.43</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.8816</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.8734</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008712</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>景顺长城品质成长混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.8104</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011854</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.7555</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.7508</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>161837</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华大盘精选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.7495</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>23.83</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.7459</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.7410</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>15.95</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.7146</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>25.68</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>77.01</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.6574</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.6234</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>73.42</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.6029</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004788</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5530</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.5368</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.5302</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>180010</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>银华优质增长混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>75.22</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.5286</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>260103</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>景顺长城动力平衡混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.5111</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4949</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011405</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银华稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4917</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009085</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银华丰享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4803</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.4706</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012434</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银华多元回报一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>60.94</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.4452</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.4098</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.4090</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>55.45</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.4079</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3461</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011400</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3444</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>180013</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银华领先策略混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3372</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004789</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3345</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3234</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011669</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2994</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2904</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>71.26</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2738</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2736</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2695</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007523</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2469</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>013414</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>太平智远三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2430</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>76.60</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2233</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>501090</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2174</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009135</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2172</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2142</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2129</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2118</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2065</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1927</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1885</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010824</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1867</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1842</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>51.01</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1563</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>730002</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>方正富邦红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>63.00</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>008306</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>方正富邦天璇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>012545</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>67.85</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>97.09</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>516130</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>43.99</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>31.41</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>007850</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>方正富邦天睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002307</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>银华多元视野灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010070</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>方正富邦ESG主题投资混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>013678</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>007959</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>方正富邦天恒混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>005251</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>银华多元动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>009329</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>000904</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>银华回报灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>011666</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>001189</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>广发聚宝混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010825</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>159909</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>招商深证TMT50ETF</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>011997</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>006302</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>银华行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>74.09</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>009136</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>001720</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>工银瑞信新增利混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>010506</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>007848</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>广发聚宝混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>011670</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>009006</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>010636</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>财通安盈混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>011389</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>国都聚成混合</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>009106</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>007524</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>013679</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>010071</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>方正富邦ESG主题投资混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>005519</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>银华混改红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>71.83</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>165531</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>信诚多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>74.74</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>31.41</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>007570</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>方正富邦红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>011548</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>九泰久慧混合A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>34.09</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>010637</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>财通安盈混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>73.42</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>161816</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>银华中证等权重90指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>009107</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>002424</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>博时文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>007851</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>方正富邦天睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>63.00</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>011998</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>001708</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>东兴改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>008307</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>方正富邦天璇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>78.67</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>011549</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>九泰久慧混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>34.09</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>012546</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>67.85</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>007960</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>方正富邦天恒混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>199</v>
+      </c>
+      <c r="D2" t="n">
+        <v>155.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>122</v>
+      </c>
+      <c r="D3" t="n">
+        <v>130.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>207</v>
+      </c>
+      <c r="D4" t="n">
+        <v>198.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>265</v>
+      </c>
+      <c r="D5" t="n">
+        <v>231.76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>272</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>228.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002027-分众传媒.xlsx
+++ b/数据整理/stocks/A股/深证主板/002027-分众传媒.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -41178,7 +41179,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41189,17 +41190,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -41209,14 +41230,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>199</v>
-      </c>
-      <c r="D2" t="n">
-        <v>155.61</v>
+          <t>501049</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>165.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.4189</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -41225,14 +41268,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>122</v>
-      </c>
-      <c r="D3" t="n">
-        <v>130.7</v>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>178.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>41.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.3688</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -41241,14 +41306,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>207</v>
-      </c>
-      <c r="D4" t="n">
-        <v>198.96</v>
+          <t>010730</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华心佳两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>114.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.5251</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -41257,14 +41344,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>265</v>
-      </c>
-      <c r="D5" t="n">
-        <v>231.76</v>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>111.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.4345</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -41273,13 +41382,5525 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.2610</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>50.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.8277</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011173</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华心享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.7183</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001112</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>40.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.5534</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010557</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富数字生活主题六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>53.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.1845</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000970</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红睿元三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>34.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.1551</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011399</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>49.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.0447</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>49.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.0389</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>59.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.8149</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>39.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.7813</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>41.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.6299</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>39.36</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5823</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.4466</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.3756</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>43.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>73.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.2956</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>27.82</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1211</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1202</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>169101</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方红睿丰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>36.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.1066</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>40.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>57.34</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.1048</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华核心价值优选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>29.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.0306</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>70.64</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>43.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9748</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.9310</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.9310</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010298</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富品牌驱动六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9251</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8225</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>25.26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>67.84</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7957</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6900</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>17.92</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6863</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6602</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6482</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011853</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6147</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5906</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5767</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>13.71</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5553</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5338</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>180010</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华优质增长混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>77.41</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5194</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5145</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011854</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4884</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004788</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>18.76</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4784</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>46.69</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4274</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011405</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>银华稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>18.05</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>72.76</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4170</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>161837</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银华大盘精选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4136</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>66.62</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3842</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>32.90</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3816</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>75.69</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3759</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>73.14</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3690</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001857</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>易方达现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3624</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3054</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>40.96</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2942</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2797</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2663</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011400</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2493</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004789</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2389</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>180013</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银华领先策略混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2147</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005474</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2142</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009085</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银华丰享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2131</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007523</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2019</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>46.69</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1899</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>501090</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>96.29</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>43.16</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1591</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1515</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>43.54</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1406</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>44.29</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>43.54</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>68.45</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>73.69</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>41.03</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>79.24</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>68.77</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>40.96</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012545</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>76.20</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008306</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>方正富邦天璇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>41.88</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007850</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>方正富邦天睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>67.45</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005475</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>159758</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华夏中证红利质量ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>000904</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>银华回报灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>67.15</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009329</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>006302</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>银华行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>75.64</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>920011</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>54.53</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>159909</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>招商深证TMT50ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>44.29</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>60.12</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>001201</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>013055</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010506</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>001727</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>970020</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>56.02</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>516130</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头ETF</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>007524</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>67.45</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>67.15</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>970021</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>56.02</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>920921</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>54.53</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>005519</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>银华混改红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>72.27</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>008353</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>015206</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>41.03</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>008354</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>007851</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>方正富邦天睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>012546</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>76.20</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>146</v>
+      </c>
+      <c r="D2" t="n">
+        <v>90.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>199</v>
+      </c>
+      <c r="D3" t="n">
+        <v>155.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>122</v>
+      </c>
+      <c r="D4" t="n">
+        <v>130.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>207</v>
+      </c>
+      <c r="D5" t="n">
+        <v>198.96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>265</v>
+      </c>
+      <c r="D6" t="n">
+        <v>231.76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>272</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>228.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002027-分众传媒.xlsx
+++ b/数据整理/stocks/A股/深证主板/002027-分众传媒.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -46783,7 +46784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46794,17 +46795,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -46814,14 +46835,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>146</v>
-      </c>
-      <c r="D2" t="n">
-        <v>90.12</v>
+          <t>501049</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>143.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.3405</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -46830,14 +46873,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>199</v>
-      </c>
-      <c r="D3" t="n">
-        <v>155.61</v>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>179.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>45.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.9152</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -46846,14 +46911,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>122</v>
-      </c>
-      <c r="D4" t="n">
-        <v>130.7</v>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.8629</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -46862,14 +46949,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>207</v>
-      </c>
-      <c r="D5" t="n">
-        <v>198.96</v>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>134.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.5670</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -46878,14 +46987,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>265</v>
-      </c>
-      <c r="D6" t="n">
-        <v>231.76</v>
+          <t>014043</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>134.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.5670</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -46894,13 +47025,4471 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010730</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华心佳两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>128.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.3838</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011173</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华心享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.0646</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001112</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>42.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.8129</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000970</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红睿元三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>36.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.3737</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>43.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.2284</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5206</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1982</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9820</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9820</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9171</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>58.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>46.28</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9063</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159905</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银深证红利ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>31.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8952</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8158</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7504</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7354</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>63.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7243</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011853</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7043</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6978</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014585</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华心兴三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6789</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011854</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5549</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011847</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达商业模式优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4988</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>180010</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华优质增长混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4804</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.74</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4778</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519017</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成积极成长混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4692</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>161837</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华大盘精选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4555</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>27.95</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4276</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>26.81</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4209</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>61.69</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4136</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>71.92</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4068</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12.06</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3968</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011405</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>19.37</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3951</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3643</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>64.48</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3581</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2690</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2160</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>501090</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2085</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>46.28</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>48.76</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>920011</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1374</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1363</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012218</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>48.76</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011527</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006341</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量指数A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014586</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>银华心兴三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007850</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>方正富邦天睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>45.19</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>45.05</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000587</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>大成灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002307</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银华多元视野灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>515910</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>96.42</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>31.20</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>015110</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001747</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001748</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009329</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>159708</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>西部利得深证红利交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005251</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>银华多元动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000904</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>银华回报灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>33.31</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>159909</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>招商深证TMT50ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012815</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>920921</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006302</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>银华行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001201</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006342</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量指数C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001727</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>516130</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010506</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>33.31</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>015206</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>165531</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>信诚多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011848</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>易方达商业模式优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>融通通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010543</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>28.54</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>31.20</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>005519</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>银华混改红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>014256</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>012219</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011528</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011758</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>007851</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>方正富邦天睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>010544</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>28.54</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>015111</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>119</v>
+      </c>
+      <c r="D2" t="n">
+        <v>68.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>146</v>
+      </c>
+      <c r="D3" t="n">
+        <v>90.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>199</v>
+      </c>
+      <c r="D4" t="n">
+        <v>155.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>122</v>
+      </c>
+      <c r="D5" t="n">
+        <v>130.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>207</v>
+      </c>
+      <c r="D6" t="n">
+        <v>198.96</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>265</v>
+      </c>
+      <c r="D7" t="n">
+        <v>231.76</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>272</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>228.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002027-分众传媒.xlsx
+++ b/数据整理/stocks/A股/深证主板/002027-分众传媒.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D2" t="n">
-        <v>68.59</v>
+        <v>36.32</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="D3" t="n">
-        <v>90.12</v>
+        <v>68.59</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>199</v>
+        <v>146</v>
       </c>
       <c r="D4" t="n">
-        <v>155.61</v>
+        <v>90.12</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>122</v>
+        <v>199</v>
       </c>
       <c r="D5" t="n">
-        <v>130.7</v>
+        <v>155.61</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>207</v>
+        <v>122</v>
       </c>
       <c r="D6" t="n">
-        <v>198.96</v>
+        <v>130.7</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>265</v>
+        <v>207</v>
       </c>
       <c r="D7" t="n">
-        <v>231.76</v>
+        <v>198.96</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>265</v>
+      </c>
+      <c r="D8" t="n">
+        <v>231.76</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>272</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>228.24</v>
       </c>
     </row>
@@ -600,6 +617,3928 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H103"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501049</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>128.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.9309</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4447</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>160.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>38.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0006</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000970</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红睿元三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9475</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5576</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>040008</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>45.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4093</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2667</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1562</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014412</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9750</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9081</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010787</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8387</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>30.94</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8385</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7751</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159905</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银深证红利ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6618</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6029</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6000</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5796</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5522</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5378</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方红优享红利混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>60.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5181</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011854</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4556</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>77.61</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4513</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3744</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013414</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>太平智远三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3590</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>69.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3338</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2530</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2508</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2486</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2459</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011427</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发价值驱动混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2157</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014413</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商核心竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1730</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010824</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011853</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011238</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>501090</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华宝消费龙头（LOF）A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>82.55</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>730002</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>方正富邦红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>31.95</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007850</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>方正富邦天睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159708</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>西部利得深证红利ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010788</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华安优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012815</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009329</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华宝消费龙头（LOF）C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010825</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159909</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>招商深证TMT50ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000904</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>银华回报灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>71.05</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>38.78</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011428</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发价值驱动混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004707</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>景顺长城睿成灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>29.49</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>517770</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>浦银安盛中证沪港深游戏及文化传媒ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009006</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>31.95</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>516130</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011198</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>交银施罗德鑫选回报混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010506</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>970094</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟均衡优选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011239</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011199</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>交银施罗德鑫选回报混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>015675</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>970093</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>52.03</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>96.01</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>004719</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>景顺长城睿成灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>29.49</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>007570</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>方正富邦红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>015389</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014256</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>013132</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>创金合信文娱媒体股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>013133</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>创金合信文娱媒体股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011758</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>970095</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>007851</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>方正富邦天睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>013655</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华安策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>015170</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>52.03</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>52.03</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>015198</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>015199</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票D</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>015637</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5171,7 +9110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10775,7 +14714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18387,7 +22326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23079,7 +27018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -30997,7 +34936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -41116,7 +45055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
